--- a/OneFor all updated product backlog.xlsx
+++ b/OneFor all updated product backlog.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="42" windowWidth="15960" windowHeight="13152"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Team name</t>
   </si>
@@ -60,7 +57,7 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -84,54 +81,96 @@
     <t>Priority (high/medium/low)</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to post a description of a task/project</t>
+  </si>
+  <si>
+    <t>As an (Admin) I should be able check the description of a task/project and negotiate with the partner so both partner and admin agree on a description</t>
+  </si>
+  <si>
+    <t>As an (Admin) I should be able check the description of a task/project so that I can post it for the members to apply</t>
+  </si>
+  <si>
+    <t>As a/an Partner/Admin I should identify task/project set of attributes so the admin can check it and the member knows the required skills to apply for it</t>
+  </si>
+  <si>
     <t>high</t>
   </si>
   <si>
-    <t>As a partner I should be able to post a description of a task/project</t>
+    <t>As a/an Partner/Admin I should add extra attributes to the task/project based on the category so the description of task could be clearer</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>As a member I should be able to view tasks so that I can see the requirements to apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a (member) I should be able to search tasks so I can find the description </t>
+  </si>
+  <si>
+    <t>As a (member) I should be able to apply for tasks so that I can get the job</t>
+  </si>
+  <si>
+    <t>As a user I should be able to view the cycle showing current state of the task from the starting point to the completely fulfillment of a task so that I can view the current state</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to check who will be assigned to the task based on the applications so that I can decide who gets the job</t>
+  </si>
+  <si>
+    <t>As a (member) I should be notified when I am accepted so that I can start working on the task</t>
   </si>
   <si>
     <t>medium</t>
   </si>
   <si>
+    <t>As a member I should receive a task/project orientation invitation when I am accepted so that I can attend</t>
+  </si>
+  <si>
+    <t>As a (member) I should be able to view recommendations of tasks that matches his/ her set of skills</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>Life Coaching</t>
   </si>
   <si>
+    <t>As a   (Life Coach) I should be able to post my weekly schedule so members can view it.</t>
+  </si>
+  <si>
+    <t>As a member I should be able to book appointments with a life coach so that I can see his schedule</t>
+  </si>
+  <si>
+    <t>As a (Life Coach) I should be able to confirm booking of a member so that he can view my schedule</t>
+  </si>
+  <si>
+    <t>As a (Life Coach) I should be able to receive a notification that a certain time slot was booked so that I can confirm it</t>
+  </si>
+  <si>
+    <t>As a member  I should be able to suggest a location with a life coach so that we can meet</t>
+  </si>
+  <si>
+    <t>As a life coach  I should be able to suggest a location with a member so that we can meet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a life coach/member  I should be able to receive a notification confirming the approved booking with both sides so that we can meet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a member I should be able to view the booked/free/confirmed slots on the system so I can decide the slot I want </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization </t>
+  </si>
+  <si>
     <t>As a user I should be able to register to the website</t>
   </si>
   <si>
-    <t>As an admin I should be able to check who will be assigned to the task based on the accepted applications so that I can decide who gets the job</t>
-  </si>
-  <si>
-    <t>As a user I should be able to view the cycle showing current state of the task from the starting point to the completely fulfillment of a task so that I can view the current state</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>As a life coach  I should be able to suggest a location with a member so that we can meet</t>
-  </si>
-  <si>
-    <t>As a member  I should be able to suggest a location with a life coach so that we can meet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a life coach/member  I should be able to receive a notification confirming the approved booking with both sides so that we can meet </t>
-  </si>
-  <si>
-    <t>As a   (Life Coach) I should be able to post my weekly schedule so members can view it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a (member) I should be able to search tasks so I can find the description </t>
-  </si>
-  <si>
-    <t>As a (member) I should be able to apply for tasks that I am eligible for so that I can get the job</t>
-  </si>
-  <si>
-    <t>As a (member) I should be able to view recommendations of tasks that matches his/ her set of skills</t>
-  </si>
-  <si>
     <t>As a user I should be able to login to the website</t>
   </si>
   <si>
@@ -139,50 +178,31 @@
   </si>
   <si>
     <t>As a user I should be able to view my profile and others profile</t>
-  </si>
-  <si>
-    <t>As a (Life Coach) I should be able to receive a notification that a certain time slot was booked so that I can confirm it</t>
-  </si>
-  <si>
-    <t>As an (Admin) I should be able check the description of a task/project  and negotiate with the partner so that I can post it for the members to apply</t>
-  </si>
-  <si>
-    <t>As a/an Partner/Admin I should identify task/project set of attributes so the admin can check it and the member knows the required skills to apply for it</t>
-  </si>
-  <si>
-    <t>As a/an Partner/Admin I should add extra attributes to the task/project based on the category so the description of task could be clearer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an Admin I should check if the member have the required skills to apply for required task so that I can accept/reject their application </t>
-  </si>
-  <si>
-    <t>As a member I should receive a task/project orientation invitation when I am accepted so that I can attend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a member I should be able to book appointments with a life coach so that I can see his schedule </t>
-  </si>
-  <si>
-    <t>As a (Life Coach) I should be able to confirm booking of a member so that he can view my schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a member I should be able to view the booked/free/confirmed slots on the system so I can decide the slot I want </t>
-  </si>
-  <si>
-    <t>As a member I should be able to view tasks so that I can see the requirements to apply</t>
-  </si>
-  <si>
-    <t>As a (member) I should be notified when I am accepted so that I can start working on the task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="14"/>
@@ -190,13 +210,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="18"/>
       <color indexed="9"/>
       <name val="Calibri"/>
@@ -212,19 +232,19 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -235,34 +255,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color indexed="15"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -291,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -463,94 +458,244 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,82 +704,29 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FF1F497D"/>
-      <rgbColor rgb="FFD8D8D8"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF4F81BD"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff1f497d"/>
+      <rgbColor rgb="ffd8d8d8"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ff4f81bd"/>
+      <rgbColor rgb="ff9bbb59"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -760,7 +852,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -769,7 +861,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -778,7 +870,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -852,7 +944,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -860,7 +952,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -879,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -909,7 +1001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -935,7 +1027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -961,7 +1053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,7 +1079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1013,7 +1105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1039,7 +1131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1065,7 +1157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1091,7 +1183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1117,7 +1209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,15 +1222,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1153,7 +1239,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1161,7 +1247,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1180,7 +1266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,7 +1344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1422,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1448,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,7 +1474,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,7 +1500,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,15 +1513,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1449,7 +1529,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1468,7 +1548,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1498,7 +1578,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,7 +1604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1550,7 +1630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1576,7 +1656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1602,7 +1682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1628,7 +1708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1654,7 +1734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1680,7 +1760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1706,7 +1786,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1719,554 +1799,579 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV44"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="182.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="256" width="8.83984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="186.508" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.1719" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.6" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" ht="31.2" customHeight="1">
+      <c r="A2" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="31.2" customHeight="1">
+      <c r="A3" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" ht="46.8" customHeight="1">
+      <c r="A4" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" ht="15.6" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="11" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" ht="15.6" customHeight="1">
+      <c r="A6" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A7" s="29" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" ht="23.4" customHeight="1">
+      <c r="A7" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="19">
+        <v>8</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" ht="23.4" customHeight="1">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="22">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" ht="23.4" customHeight="1">
+      <c r="A9" s="21">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" ht="23.4" customHeight="1">
+      <c r="A10" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="B10" t="s" s="22">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="21">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s" s="22">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="21">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="22">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s" s="24">
         <v>27</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="D12" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="21">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="22">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="21">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s" s="22">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" s="21">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s" s="22">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="21">
         <v>8</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="16">
+      <c r="B16" t="s" s="22">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="21">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s" s="22">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" s="21">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s" s="22">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" s="21">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s" s="22">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="21">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s" s="22">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" t="s" s="25">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s" s="26">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" ht="18" customHeight="1">
+      <c r="A23" s="27">
         <v>1</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="16">
+      <c r="B23" t="s" s="28">
+        <v>39</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" ht="18" customHeight="1">
+      <c r="A24" s="27">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B24" t="s" s="28">
         <v>40</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="18">
+      <c r="C24" s="6"/>
+      <c r="D24" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" ht="23.4" customHeight="1">
+      <c r="A25" s="27">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B25" t="s" s="28">
         <v>41</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="18">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" ht="18" customHeight="1">
+      <c r="A26" s="27">
         <v>4</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B26" t="s" s="28">
         <v>42</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="18">
+      <c r="C26" s="6"/>
+      <c r="D26" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" ht="18" customHeight="1">
+      <c r="A27" s="27">
         <v>5</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B27" t="s" s="28">
+        <v>43</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" ht="18" customHeight="1">
+      <c r="A28" s="27">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s" s="28">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" ht="18" customHeight="1">
+      <c r="A29" s="27">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s" s="28">
+        <v>45</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" ht="18" customHeight="1">
+      <c r="A30" s="27">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s" s="28">
+        <v>46</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" ht="18" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="6"/>
+      <c r="D31" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="6"/>
+      <c r="D32" t="s" s="23">
+        <v>34</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" ht="14.4" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" ht="18" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" ht="18" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" ht="18" customHeight="1">
+      <c r="A37" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s" s="30">
         <v>48</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="18">
-        <v>6</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="18">
-        <v>7</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="18">
-        <v>8</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="18">
-        <v>9</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="18">
-        <v>10</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="18">
-        <v>11</v>
-      </c>
-      <c r="B18" s="26" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" ht="14.4" customHeight="1">
+      <c r="A38" s="27">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s" s="28">
         <v>49</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="18">
-        <v>12</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="18">
-        <v>13</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="30"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A22" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="33">
-        <v>1</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="33">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" ht="14.4" customHeight="1">
+      <c r="A39" s="27">
         <v>2</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="33">
+      <c r="B39" t="s" s="31">
+        <v>50</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+    </row>
+    <row r="40" ht="14.4" customHeight="1">
+      <c r="A40" s="27">
         <v>3</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="33">
+      <c r="B40" t="s" s="28">
+        <v>51</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+    </row>
+    <row r="41" ht="14.4" customHeight="1">
+      <c r="A41" s="27">
         <v>4</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="33">
-        <v>5</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A28" s="33">
-        <v>6</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="33">
-        <v>7</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="33">
-        <v>8</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="35"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="35"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="35"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="35"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="35">
-        <v>1</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="35">
-        <v>2</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A40" s="35">
-        <v>3</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A41" s="35">
-        <v>4</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B44" s="25"/>
+      <c r="B41" t="s" s="28">
+        <v>52</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" ht="14.4" customHeight="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" s="39"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44" ht="14.4" customHeight="1">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Bold"&amp;12&amp;K000000Team name:                
 Project:

--- a/OneFor all updated product backlog.xlsx
+++ b/OneFor all updated product backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>Team name</t>
   </si>
@@ -87,24 +87,63 @@
     <t>As a partner I should be able to post a description of a task/project</t>
   </si>
   <si>
+    <t>As a Partner I should identify task/project set of attributes so the admin can check it and the member knows the required skills to apply for it</t>
+  </si>
+  <si>
+    <t>As a Partner I should add extra attributes to the task/project based on the category so the description of task could be clearer</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to create my profile</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to Update my profile</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to Search other people’s profile</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to Delete  my profile</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
     <t>As an (Admin) I should be able check the description of a task/project and negotiate with the partner so both partner and admin agree on a description</t>
   </si>
   <si>
     <t>As an (Admin) I should be able check the description of a task/project so that I can post it for the members to apply</t>
   </si>
   <si>
-    <t>As a/an Partner/Admin I should identify task/project set of attributes so the admin can check it and the member knows the required skills to apply for it</t>
+    <t>As an Admin I should identify task/project set of attributes so the admin can check it and the member knows the required skills to apply for it</t>
   </si>
   <si>
     <t>high</t>
   </si>
   <si>
-    <t>As a/an Partner/Admin I should add extra attributes to the task/project based on the category so the description of task could be clearer</t>
+    <t>As an Admin I should add extra attributes to the task/project based on the category so the description of task could be clearer</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
+    <t>As an admin I should be able to check who will be assigned to the task based on the applications so that I can decide who gets the job</t>
+  </si>
+  <si>
+    <t>As a Admin I should be able to create my profile</t>
+  </si>
+  <si>
+    <t>As a Admin I should be able to Update my profile</t>
+  </si>
+  <si>
+    <t>As a Admin I should be able to Search other people’s profile</t>
+  </si>
+  <si>
+    <t>As a Admin I should be able to Delete my profile</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>As a member I should be able to view tasks so that I can see the requirements to apply</t>
   </si>
   <si>
@@ -114,10 +153,7 @@
     <t>As a (member) I should be able to apply for tasks so that I can get the job</t>
   </si>
   <si>
-    <t>As a user I should be able to view the cycle showing current state of the task from the starting point to the completely fulfillment of a task so that I can view the current state</t>
-  </si>
-  <si>
-    <t>As an admin I should be able to check who will be assigned to the task based on the applications so that I can decide who gets the job</t>
+    <t>As a member I should be able to view the cycle showing current state of the task from the starting point to the completely fulfillment of a task so that I can view the current state</t>
   </si>
   <si>
     <t>As a (member) I should be notified when I am accepted so that I can start working on the task</t>
@@ -132,6 +168,18 @@
     <t>As a (member) I should be able to view recommendations of tasks that matches his/ her set of skills</t>
   </si>
   <si>
+    <t>As a Member I should be able to create my profile</t>
+  </si>
+  <si>
+    <t>As a Member I should be able to update my profile</t>
+  </si>
+  <si>
+    <t>As a Member I should be able to Search other people’s profile</t>
+  </si>
+  <si>
+    <t>As a Member I should be able to delete my profile</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
@@ -141,22 +189,22 @@
     <t>As a   (Life Coach) I should be able to post my weekly schedule so members can view it.</t>
   </si>
   <si>
+    <t>As a (Life Coach) I should be able to confirm booking of a member so that he can view my schedule</t>
+  </si>
+  <si>
+    <t>As a (Life Coach) I should be able to receive a notification that a certain time slot was booked so that I can confirm it</t>
+  </si>
+  <si>
+    <t>As a life coach  I should be able to suggest a location with a member so that we can meet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a life coach/member I should be able to receive a notification confirming the approved booking with both sides so that we can meet </t>
+  </si>
+  <si>
     <t>As a member I should be able to book appointments with a life coach so that I can see his schedule</t>
   </si>
   <si>
-    <t>As a (Life Coach) I should be able to confirm booking of a member so that he can view my schedule</t>
-  </si>
-  <si>
-    <t>As a (Life Coach) I should be able to receive a notification that a certain time slot was booked so that I can confirm it</t>
-  </si>
-  <si>
     <t>As a member  I should be able to suggest a location with a life coach so that we can meet</t>
-  </si>
-  <si>
-    <t>As a life coach  I should be able to suggest a location with a member so that we can meet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a life coach/member  I should be able to receive a notification confirming the approved booking with both sides so that we can meet </t>
   </si>
   <si>
     <t xml:space="preserve">As a member I should be able to view the booked/free/confirmed slots on the system so I can decide the slot I want </t>
@@ -1811,14 +1859,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="186.508" style="1" customWidth="1"/>
+    <col min="2" max="2" width="186.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.8516" style="1" customWidth="1"/>
     <col min="4" max="4" width="76.1719" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
@@ -1938,9 +1986,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" ht="23.4" customHeight="1">
-      <c r="A9" s="21">
-        <v>2</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" t="s" s="22">
         <v>22</v>
       </c>
@@ -1950,9 +1996,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" ht="23.4" customHeight="1">
-      <c r="A10" s="21">
-        <v>2.1</v>
-      </c>
+      <c r="A10" s="6"/>
       <c r="B10" t="s" s="22">
         <v>23</v>
       </c>
@@ -1961,158 +2005,138 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="21">
-        <v>3</v>
-      </c>
+    <row r="11" ht="23.4" customHeight="1">
+      <c r="A11" s="6"/>
       <c r="B11" t="s" s="22">
         <v>24</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" t="s" s="23">
-        <v>25</v>
-      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="21">
-        <v>4</v>
-      </c>
+    <row r="12" ht="23.4" customHeight="1">
+      <c r="A12" s="6"/>
       <c r="B12" t="s" s="22">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s" s="24">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s" s="23">
         <v>25</v>
       </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="21">
-        <v>5</v>
-      </c>
+    <row r="13" ht="23.4" customHeight="1">
+      <c r="A13" s="6"/>
       <c r="B13" t="s" s="22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" t="s" s="23">
-        <v>25</v>
-      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="21">
-        <v>6</v>
-      </c>
+    <row r="14" ht="23.4" customHeight="1">
+      <c r="A14" s="6"/>
       <c r="B14" t="s" s="22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" t="s" s="23">
-        <v>25</v>
-      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row r="15" ht="23.4" customHeight="1">
       <c r="A15" s="21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s" s="22">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" t="s" s="23">
-        <v>25</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row r="16" ht="23.4" customHeight="1">
       <c r="A16" s="21">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="B16" t="s" s="22">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" t="s" s="23">
-        <v>25</v>
-      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row r="17" ht="23.4" customHeight="1">
       <c r="A17" s="21">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="B17" t="s" s="22">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="21">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="B18" t="s" s="22">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" t="s" s="23">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="21">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="B19" t="s" s="22">
-        <v>35</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="C19" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s" s="23">
+        <v>32</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="21">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="B20" t="s" s="22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" t="s" s="23">
-        <v>34</v>
-      </c>
+      <c r="D20" s="23"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="22"/>
+      <c r="B21" t="s" s="22">
+        <v>36</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="23"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" t="s" s="25">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s" s="22">
         <v>37</v>
-      </c>
-      <c r="B22" t="s" s="26">
-        <v>38</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="23"/>
@@ -2120,11 +2144,9 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="27">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s" s="28">
-        <v>39</v>
+      <c r="A23" s="6"/>
+      <c r="B23" t="s" s="22">
+        <v>38</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="23"/>
@@ -2132,236 +2154,418 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="27">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s" s="28">
-        <v>40</v>
+      <c r="A24" s="6"/>
+      <c r="B24" t="s" s="22">
+        <v>39</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" t="s" s="23">
-        <v>34</v>
-      </c>
+      <c r="D24" s="23"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" ht="23.4" customHeight="1">
-      <c r="A25" s="27">
+    <row r="25" ht="18" customHeight="1">
+      <c r="A25" s="21">
         <v>3</v>
       </c>
-      <c r="B25" t="s" s="28">
-        <v>41</v>
+      <c r="B25" t="s" s="22">
+        <v>40</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="27">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s" s="28">
-        <v>42</v>
+      <c r="A26" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="B26" t="s" s="22">
+        <v>41</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" t="s" s="23">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="27">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s" s="28">
-        <v>43</v>
+      <c r="A27" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="B27" t="s" s="22">
+        <v>42</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" t="s" s="23">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="27">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s" s="28">
-        <v>44</v>
+      <c r="A28" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="B28" t="s" s="22">
+        <v>43</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" t="s" s="23">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="27">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s" s="28">
-        <v>45</v>
+      <c r="A29" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="B29" t="s" s="22">
+        <v>44</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" t="s" s="23">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="27">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s" s="28">
-        <v>46</v>
+      <c r="A30" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="B30" t="s" s="22">
+        <v>45</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" t="s" s="23">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="B31" t="s" s="22">
+        <v>47</v>
+      </c>
       <c r="C31" s="6"/>
-      <c r="D31" t="s" s="23">
-        <v>34</v>
-      </c>
+      <c r="D31" s="23"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="21">
+        <v>3.7</v>
+      </c>
+      <c r="B32" t="s" s="22">
+        <v>48</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" t="s" s="23">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" ht="14.4" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="28"/>
+    <row r="33" ht="18" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s" s="22">
+        <v>49</v>
+      </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="6"/>
+      <c r="B34" t="s" s="22">
+        <v>50</v>
+      </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="6"/>
+      <c r="B35" t="s" s="22">
+        <v>51</v>
+      </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="6"/>
+      <c r="B36" t="s" s="22">
+        <v>52</v>
+      </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s" s="30">
-        <v>48</v>
+      <c r="A37" t="s" s="25">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s" s="26">
+        <v>54</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" ht="14.4" customHeight="1">
+    <row r="38" ht="18" customHeight="1">
       <c r="A38" s="27">
         <v>1</v>
       </c>
       <c r="B38" t="s" s="28">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" ht="14.4" customHeight="1">
+    <row r="39" ht="23.4" customHeight="1">
       <c r="A39" s="27">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s" s="28">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" ht="18" customHeight="1">
+      <c r="A40" s="27">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s" s="28">
+        <v>57</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" ht="18" customHeight="1">
+      <c r="A41" s="27">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s" s="28">
+        <v>58</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" ht="18" customHeight="1">
+      <c r="A42" s="27">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s" s="28">
+        <v>59</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" ht="18" customHeight="1">
+      <c r="A43" s="27">
         <v>2</v>
       </c>
-      <c r="B39" t="s" s="31">
-        <v>50</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-    </row>
-    <row r="40" ht="14.4" customHeight="1">
-      <c r="A40" s="27">
+      <c r="B43" t="s" s="28">
+        <v>60</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" ht="18" customHeight="1">
+      <c r="A44" s="27">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s" s="28">
+        <v>61</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" ht="18" customHeight="1">
+      <c r="A45" s="27">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s" s="28">
+        <v>62</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" ht="18" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="6"/>
+      <c r="D46" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" ht="18" customHeight="1">
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="6"/>
+      <c r="D47" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" ht="14.4" customHeight="1">
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" ht="18" customHeight="1">
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" ht="18" customHeight="1">
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" ht="18" customHeight="1">
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" ht="18" customHeight="1">
+      <c r="A52" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s" s="30">
+        <v>64</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" ht="14.4" customHeight="1">
+      <c r="A53" s="27">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s" s="28">
+        <v>65</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" ht="14.4" customHeight="1">
+      <c r="A54" s="27">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s" s="31">
+        <v>66</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+    </row>
+    <row r="55" ht="14.4" customHeight="1">
+      <c r="A55" s="27">
         <v>3</v>
       </c>
-      <c r="B40" t="s" s="28">
-        <v>51</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-    </row>
-    <row r="41" ht="14.4" customHeight="1">
-      <c r="A41" s="27">
+      <c r="B55" t="s" s="28">
+        <v>67</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="37"/>
+    </row>
+    <row r="56" ht="14.4" customHeight="1">
+      <c r="A56" s="27">
         <v>4</v>
       </c>
-      <c r="B41" t="s" s="28">
-        <v>52</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-    </row>
-    <row r="42" ht="14.4" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-    </row>
-    <row r="44" ht="14.4" customHeight="1">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
+      <c r="B56" t="s" s="28">
+        <v>68</v>
+      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
+    </row>
+    <row r="57" ht="14.4" customHeight="1">
+      <c r="A57" s="29"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="37"/>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" s="39"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="37"/>
+    </row>
+    <row r="59" ht="14.4" customHeight="1">
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/OneFor all updated product backlog.xlsx
+++ b/OneFor all updated product backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Team name</t>
   </si>
@@ -75,67 +75,70 @@
     <t>User story</t>
   </si>
   <si>
-    <t>Epic ?</t>
-  </si>
-  <si>
-    <t>Priority (high/medium/low)</t>
+    <t>Assignee</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>As a partner I should be able to post a description of a task/project</t>
-  </si>
-  <si>
     <t>As a Partner I should identify task/project set of attributes so the admin can check it and the member knows the required skills to apply for it</t>
   </si>
   <si>
+    <t>Walid Ahmed</t>
+  </si>
+  <si>
     <t>As a Partner I should add extra attributes to the task/project based on the category so the description of task could be clearer</t>
   </si>
   <si>
+    <t xml:space="preserve">Mohmmed Ibrahim </t>
+  </si>
+  <si>
     <t>As a partner I should be able to create my profile</t>
   </si>
   <si>
-    <t>As a partner I should be able to Update my profile</t>
-  </si>
-  <si>
-    <t>As a partner I should be able to Search other people’s profile</t>
+    <t xml:space="preserve">As a partner I should be able to update my profile </t>
+  </si>
+  <si>
+    <t>As a Partner I should be able to see all Partners’ profiles</t>
   </si>
   <si>
     <t>As a partner I should be able to Delete  my profile</t>
   </si>
   <si>
+    <t>As an partner I should be able check the description of a task/project so that I can post it for the members to apply</t>
+  </si>
+  <si>
+    <t>Walid Ahmed &amp; Ahmed Ragab</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
     <t>As an (Admin) I should be able check the description of a task/project and negotiate with the partner so both partner and admin agree on a description</t>
   </si>
   <si>
+    <t>Ahmed Ragab</t>
+  </si>
+  <si>
     <t>As an (Admin) I should be able check the description of a task/project so that I can post it for the members to apply</t>
   </si>
   <si>
-    <t>As an Admin I should identify task/project set of attributes so the admin can check it and the member knows the required skills to apply for it</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>As an Admin I should add extra attributes to the task/project based on the category so the description of task could be clearer</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>Mohmmed Ibrahim &amp; Youssef Medhat</t>
   </si>
   <si>
     <t>As an admin I should be able to check who will be assigned to the task based on the applications so that I can decide who gets the job</t>
   </si>
   <si>
-    <t>As a Admin I should be able to create my profile</t>
-  </si>
-  <si>
-    <t>As a Admin I should be able to Update my profile</t>
-  </si>
-  <si>
-    <t>As a Admin I should be able to Search other people’s profile</t>
+    <t>Youssef Medhat</t>
+  </si>
+  <si>
+    <t>As a Admin I should be able to see everyone’s profile</t>
+  </si>
+  <si>
+    <t>Youssef Medhat &amp; Ahmed Ragab</t>
   </si>
   <si>
     <t>As a Admin I should be able to Delete my profile</t>
@@ -147,34 +150,31 @@
     <t>As a member I should be able to view tasks so that I can see the requirements to apply</t>
   </si>
   <si>
+    <t>Ahmed Halawa</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a (member) I should be able to search tasks so I can find the description </t>
   </si>
   <si>
+    <t>Hazem Ashraf</t>
+  </si>
+  <si>
     <t>As a (member) I should be able to apply for tasks so that I can get the job</t>
   </si>
   <si>
-    <t>As a member I should be able to view the cycle showing current state of the task from the starting point to the completely fulfillment of a task so that I can view the current state</t>
-  </si>
-  <si>
     <t>As a (member) I should be notified when I am accepted so that I can start working on the task</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>As a member I should receive a task/project orientation invitation when I am accepted so that I can attend</t>
   </si>
   <si>
-    <t>As a (member) I should be able to view recommendations of tasks that matches his/ her set of skills</t>
-  </si>
-  <si>
     <t>As a Member I should be able to create my profile</t>
   </si>
   <si>
     <t>As a Member I should be able to update my profile</t>
   </si>
   <si>
-    <t>As a Member I should be able to Search other people’s profile</t>
+    <t>As a Member I should be able to view other people’s profile</t>
   </si>
   <si>
     <t>As a Member I should be able to delete my profile</t>
@@ -186,25 +186,58 @@
     <t>Life Coaching</t>
   </si>
   <si>
+    <t>As a Life coach I should be able to create my profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a life coach I should be able to update my profile </t>
+  </si>
+  <si>
+    <t>As a life coach I should be able to see all Partners’ profiles</t>
+  </si>
+  <si>
+    <t>As a life coach I should be able to Delete  my profile</t>
+  </si>
+  <si>
     <t>As a   (Life Coach) I should be able to post my weekly schedule so members can view it.</t>
   </si>
   <si>
+    <t xml:space="preserve">Abdullah </t>
+  </si>
+  <si>
     <t>As a (Life Coach) I should be able to confirm booking of a member so that he can view my schedule</t>
   </si>
   <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
     <t>As a (Life Coach) I should be able to receive a notification that a certain time slot was booked so that I can confirm it</t>
   </si>
   <si>
+    <t>Karim Fekry</t>
+  </si>
+  <si>
     <t>As a life coach  I should be able to suggest a location with a member so that we can meet</t>
   </si>
   <si>
     <t xml:space="preserve">As a life coach/member I should be able to receive a notification confirming the approved booking with both sides so that we can meet </t>
   </si>
   <si>
+    <t xml:space="preserve">Omar Mahmoud </t>
+  </si>
+  <si>
     <t>As a member I should be able to book appointments with a life coach so that I can see his schedule</t>
   </si>
   <si>
+    <t>As a Member I should be able to update an appointment</t>
+  </si>
+  <si>
+    <t>As a Life coach I should be able to update an appointment</t>
+  </si>
+  <si>
     <t>As a member  I should be able to suggest a location with a life coach so that we can meet</t>
+  </si>
+  <si>
+    <t>Ahmed Emad</t>
   </si>
   <si>
     <t xml:space="preserve">As a member I should be able to view the booked/free/confirmed slots on the system so I can decide the slot I want </t>
@@ -235,9 +268,9 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -259,7 +292,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
@@ -293,17 +326,12 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="15"/>
       <name val="Calibri"/>
     </font>
@@ -527,40 +555,41 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,6 +604,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
@@ -611,7 +649,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -675,67 +713,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1859,18 +1885,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="186.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76.1719" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="142.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" customHeight="1">
@@ -1955,15 +1981,13 @@
       <c r="C6" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D6" t="s" s="15">
-        <v>19</v>
-      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
     </row>
     <row r="7" ht="23.4" customHeight="1">
       <c r="A7" t="s" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="19">
         <v>8</v>
@@ -1974,83 +1998,95 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" ht="23.4" customHeight="1">
-      <c r="A8" s="21">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="22">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s" s="21">
         <v>21</v>
       </c>
-      <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" ht="23.4" customHeight="1">
+    <row r="9" ht="19" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" t="s" s="22">
+      <c r="B9" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" t="s" s="21">
+        <v>23</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" ht="23.4" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" t="s" s="22">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6"/>
+      <c r="B10" t="s" s="21">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s" s="21">
+        <v>21</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" ht="23.4" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" t="s" s="22">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6"/>
+      <c r="B11" t="s" s="21">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="21">
+        <v>21</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" ht="23.4" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" t="s" s="22">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6"/>
+      <c r="B12" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s" s="21">
+        <v>21</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" ht="23.4" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" t="s" s="22">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6"/>
+      <c r="B13" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s" s="21">
+        <v>21</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" ht="23.4" customHeight="1">
+    <row r="14" ht="32" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" t="s" s="22">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="B14" t="s" s="21">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s" s="22">
+        <v>29</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" ht="23.4" customHeight="1">
-      <c r="A15" s="21">
+      <c r="A15" s="23">
         <v>2</v>
       </c>
-      <c r="B15" t="s" s="22">
-        <v>28</v>
+      <c r="B15" t="s" s="21">
+        <v>30</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2058,514 +2094,520 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" ht="23.4" customHeight="1">
-      <c r="A16" s="21">
+      <c r="A16" s="23">
         <v>2.1</v>
       </c>
-      <c r="B16" t="s" s="22">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6"/>
+      <c r="B16" t="s" s="21">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s" s="21">
+        <v>32</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" ht="23.4" customHeight="1">
-      <c r="A17" s="21">
+      <c r="A17" s="23">
         <v>2.2</v>
       </c>
-      <c r="B17" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="C17" s="6"/>
+      <c r="B17" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s" s="21">
+        <v>32</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="21">
-        <v>2.3</v>
-      </c>
-      <c r="B18" t="s" s="22">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" t="s" s="23">
-        <v>32</v>
-      </c>
+    <row r="18" ht="27" customHeight="1">
+      <c r="A18" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="B18" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s" s="22">
+        <v>35</v>
+      </c>
+      <c r="D18" s="24"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="21">
-        <v>2.4</v>
-      </c>
-      <c r="B19" t="s" s="22">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s" s="24">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s" s="23">
-        <v>32</v>
-      </c>
+      <c r="A19" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="B19" t="s" s="21">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s" s="21">
+        <v>37</v>
+      </c>
+      <c r="D19" s="24"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="B20" t="s" s="22">
-        <v>35</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="23"/>
+    <row r="20" ht="27" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s" s="21">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s" s="22">
+        <v>39</v>
+      </c>
+      <c r="D20" s="24"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" ht="18" customHeight="1">
+    <row r="21" ht="27" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" t="s" s="22">
-        <v>36</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="23"/>
+      <c r="B21" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s" s="22">
+        <v>39</v>
+      </c>
+      <c r="D21" s="24"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s" s="22">
-        <v>37</v>
+      <c r="A22" s="23">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s" s="21">
+        <v>41</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="23"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" t="s" s="22">
-        <v>38</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="B23" t="s" s="21">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="D23" s="24"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" t="s" s="22">
-        <v>39</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="B24" t="s" s="21">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="D24" s="24"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="21">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s" s="22">
-        <v>40</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="B25" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="D25" s="24"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="21">
-        <v>3.1</v>
-      </c>
-      <c r="B26" t="s" s="22">
-        <v>41</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" t="s" s="23">
-        <v>32</v>
-      </c>
+      <c r="A26" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="B26" t="s" s="21">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="D26" s="24"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="21">
-        <v>3.2</v>
-      </c>
-      <c r="B27" t="s" s="22">
-        <v>42</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" t="s" s="23">
-        <v>32</v>
-      </c>
+      <c r="A27" s="23">
+        <v>3.6</v>
+      </c>
+      <c r="B27" t="s" s="21">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="D27" s="24"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="21">
-        <v>3.3</v>
-      </c>
-      <c r="B28" t="s" s="22">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s" s="21">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s" s="21">
         <v>43</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" t="s" s="23">
-        <v>32</v>
-      </c>
+      <c r="D28" s="24"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="21">
-        <v>3.4</v>
-      </c>
-      <c r="B29" t="s" s="22">
-        <v>44</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" t="s" s="23">
-        <v>32</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="D29" s="24"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="B30" t="s" s="22">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s" s="21">
         <v>45</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" t="s" s="23">
-        <v>46</v>
-      </c>
+      <c r="D30" s="24"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="21">
-        <v>3.6</v>
-      </c>
-      <c r="B31" t="s" s="22">
-        <v>47</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="6"/>
+      <c r="B31" t="s" s="21">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="D31" s="24"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="21">
-        <v>3.7</v>
-      </c>
-      <c r="B32" t="s" s="22">
-        <v>48</v>
+    <row r="32" ht="24" customHeight="1">
+      <c r="A32" t="s" s="25">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s" s="26">
+        <v>54</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" t="s" s="23">
-        <v>46</v>
-      </c>
+      <c r="D32" s="24"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s" s="22">
-        <v>49</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="27">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="D33" s="24"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s" s="22">
-        <v>50</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="23"/>
+      <c r="A34" s="28">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s" s="29">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="D34" s="24"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" t="s" s="22">
-        <v>51</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="27">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s" s="21">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="D35" s="24"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" t="s" s="22">
-        <v>52</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="23"/>
+      <c r="A36" s="27">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s" s="21">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="D36" s="24"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" t="s" s="25">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="30">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s" s="29">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s" s="21">
+        <v>60</v>
+      </c>
+      <c r="D37" s="24"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="27">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s" s="28">
-        <v>55</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="23"/>
+    <row r="38" ht="23.4" customHeight="1">
+      <c r="A38" s="28">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s" s="29">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s" s="21">
+        <v>62</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" ht="23.4" customHeight="1">
-      <c r="A39" s="27">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s" s="28">
-        <v>56</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+    <row r="39" ht="18" customHeight="1">
+      <c r="A39" s="28">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s" s="29">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s" s="21">
+        <v>64</v>
+      </c>
+      <c r="D39" s="24"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="27">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s" s="28">
-        <v>57</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" t="s" s="23">
-        <v>32</v>
-      </c>
+      <c r="A40" s="28">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s" s="29">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s" s="21">
+        <v>64</v>
+      </c>
+      <c r="D40" s="24"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="27">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s" s="28">
-        <v>58</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" t="s" s="23">
-        <v>32</v>
-      </c>
+      <c r="A41" s="28">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s" s="29">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s" s="21">
+        <v>67</v>
+      </c>
+      <c r="D41" s="24"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="27">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s" s="28">
-        <v>59</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" t="s" s="23">
-        <v>32</v>
-      </c>
+      <c r="A42" s="28">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s" s="29">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s" s="21">
+        <v>67</v>
+      </c>
+      <c r="D42" s="24"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="27">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s" s="28">
-        <v>60</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" t="s" s="23">
-        <v>46</v>
-      </c>
+      <c r="A43" s="31"/>
+      <c r="B43" t="s" s="29">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s" s="21">
+        <v>67</v>
+      </c>
+      <c r="D43" s="24"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="27">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s" s="28">
-        <v>61</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" t="s" s="23">
-        <v>32</v>
-      </c>
+      <c r="A44" s="31"/>
+      <c r="B44" t="s" s="29">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s" s="21">
+        <v>67</v>
+      </c>
+      <c r="D44" s="24"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="27">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s" s="28">
-        <v>62</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" t="s" s="23">
-        <v>46</v>
-      </c>
+      <c r="A45" s="28">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s" s="29">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s" s="21">
+        <v>72</v>
+      </c>
+      <c r="D45" s="24"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="6"/>
-      <c r="D46" t="s" s="23">
-        <v>46</v>
-      </c>
+      <c r="A46" s="28">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s" s="29">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s" s="21">
+        <v>72</v>
+      </c>
+      <c r="D46" s="24"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="6"/>
-      <c r="D47" t="s" s="23">
-        <v>46</v>
-      </c>
+      <c r="D47" s="24"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" ht="14.4" customHeight="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="28"/>
+    <row r="48" ht="18" customHeight="1">
+      <c r="A48" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s" s="29">
+        <v>75</v>
+      </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" ht="18" customHeight="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="6"/>
+    <row r="49" ht="14.4" customHeight="1">
+      <c r="A49" s="28">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s" s="29">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s" s="21">
+        <v>37</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" ht="18" customHeight="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="6"/>
+    <row r="50" ht="19" customHeight="1">
+      <c r="A50" s="28">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s" s="29">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s" s="21">
+        <v>37</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" ht="18" customHeight="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="6"/>
+    <row r="51" ht="19" customHeight="1">
+      <c r="A51" s="28">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s" s="29">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s" s="21">
+        <v>37</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" ht="18" customHeight="1">
-      <c r="A52" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="B52" t="s" s="30">
-        <v>64</v>
-      </c>
-      <c r="C52" s="6"/>
+    <row r="52" ht="19" customHeight="1">
+      <c r="A52" s="28">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s" s="29">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s" s="21">
+        <v>37</v>
+      </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" ht="14.4" customHeight="1">
-      <c r="A53" s="27">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s" s="28">
-        <v>65</v>
-      </c>
-      <c r="C53" s="6"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" t="s" s="21">
+        <v>37</v>
+      </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" ht="14.4" customHeight="1">
-      <c r="A54" s="27">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s" s="31">
-        <v>66</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
     </row>
     <row r="55" ht="14.4" customHeight="1">
-      <c r="A55" s="27">
-        <v>3</v>
-      </c>
-      <c r="B55" t="s" s="28">
-        <v>67</v>
-      </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
-    </row>
-    <row r="56" ht="14.4" customHeight="1">
-      <c r="A56" s="27">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s" s="28">
-        <v>68</v>
-      </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
-    </row>
-    <row r="57" ht="14.4" customHeight="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
-    </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="39"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
-    </row>
-    <row r="59" ht="14.4" customHeight="1">
-      <c r="A59" s="40"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
